--- a/tests/02_Data_Register.xlsx
+++ b/tests/02_Data_Register.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BF51FD-D005-4CC0-A622-9C31DCC4D1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC368097-126B-4B39-B69A-B42A783F044B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1361,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R76" sqref="R76"/>
+    <sheetView tabSelected="1" topLeftCell="G54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1381,7 @@
     <col min="12" max="12" width="16.09765625" style="5" customWidth="1"/>
     <col min="13" max="13" width="41.5" style="9" customWidth="1"/>
     <col min="14" max="14" width="28.69921875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="33.296875" style="10" customWidth="1"/>
+    <col min="15" max="15" width="68.5" style="10" customWidth="1"/>
     <col min="16" max="16" width="15.09765625" style="11" customWidth="1"/>
     <col min="17" max="18" width="9" style="11" customWidth="1"/>
     <col min="19" max="19" width="8.796875" style="12" customWidth="1"/>
@@ -5332,7 +5332,7 @@
         <v>177</v>
       </c>
       <c r="O71" s="42" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="P71" s="15" t="s">
         <v>35</v>
@@ -10399,7 +10399,7 @@
     <mergeCell ref="N77:O77"/>
     <mergeCell ref="N82:O82"/>
   </mergeCells>
-  <conditionalFormatting sqref="O1:O76 O78:O81 O83:O1048576">
+  <conditionalFormatting sqref="O78:O81 O83:O1048576 O1:O76">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
